--- a/src/assets/tpl-import-file/Import_HDLD.xlsx
+++ b/src/assets/tpl-import-file/Import_HDLD.xlsx
@@ -1,43 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longs\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgdd1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E9F47B-49E2-48E7-B455-0A2F3D2902C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="705" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="danhmuc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={9F40013D-4E79-4363-A347-2C4E3FE6D7D3}</author>
   </authors>
   <commentList>
-    <comment ref="M4" authorId="0" shapeId="0">
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>Import</t>
   </si>
@@ -114,26 +108,167 @@
     <t>Thuế bậc thang</t>
   </si>
   <si>
-    <t>test --- Công ty cổ phần đầu tư công nghệ UNICLOUD</t>
-  </si>
-  <si>
-    <t>testUNI2276/2022/HĐLĐ_UNICLOUD</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>UNITEST</t>
+    <t>UNITEST1</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Test</t>
+  </si>
+  <si>
+    <t>test_UNI001/2022/HĐLĐ_UNICLOUD</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ CÔNG NGHỆ UNICLOUD</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN XÂY LẮP SUNSHINE E&amp;C</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN PROPERTY HOMES</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ XÂY DỰNG XUÂN ĐỈNH</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN BẤT ĐỘNG SẢN WONDERLAND</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH NGÔI NHÀ VIỆT VIETHOME</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ VÀ XÂY DỰNG SUNRISE VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Công Ty Cổ Phần S-service Sài Gòn</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN KS GROUP</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN SAO ÁNH DƯƠNG</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN SUNSHINE HOMES</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN CÔNG NGHỆ UNICLOUD</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN SUNSHINE INTERNATIONAL PROPERTY TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN KSFINANCE</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN SUNSHINE AM</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẦU TƯ NHÀ HƯNG THỊNH PHÁT</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN SUNSHINE LANDSCAPE</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN SUNSHINE MARINA NHA TRANG</t>
+  </si>
+  <si>
+    <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN CAFE'S PLUS</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN VINAMINCO KHÁNH HÒA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÔNG TY CỔ PHẦN TẬP ĐOÀN TRUYỀN THÔNG VÀ GIẢI TRÍ ODE </t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN BẤT ĐỘNG SẢN FULLAND</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Tập đoàn Sunshine Sài Gòn</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN ĐẦU TƯ KSFINANCE</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN TẬP ĐOÀN SUNSHINE</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH KINH DOANH THƯƠNG MẠI VÀ DỊCH VỤ SUNSHINE MART</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN SUNSHINE CAB</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN SUNSHINE SKY VILLA</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN DỊCH VỤ THƯƠNG MAI S-MART</t>
+  </si>
+  <si>
+    <t>Công ty TNHH Dynamic Innovation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÔNG TY CỔ PHẦN PHÁT TRIỂN SUNSHINE HOMES </t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH ĐẦU TƯ SSF</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN KINH DOANH NHÀ SUNSHINE</t>
+  </si>
+  <si>
+    <t>CÔNG TY CỔ PHẦN XÂY DỰNG V-PRO</t>
+  </si>
+  <si>
+    <t>Tên công ty</t>
+  </si>
+  <si>
+    <t>Thanh lý hợp đồng điều chuyển</t>
+  </si>
+  <si>
+    <t>Thanh lý hợp đồng thôi việc</t>
+  </si>
+  <si>
+    <t>Hợp đồng lao động S-cafe</t>
+  </si>
+  <si>
+    <t>Hợp đồng thử việc S-cafe</t>
+  </si>
+  <si>
+    <t>Hợp đồng lao động S-MART</t>
+  </si>
+  <si>
+    <t>Hợp đồng thử việc  S-MART</t>
+  </si>
+  <si>
+    <t>Hợp đồng lao động KS-GROUP</t>
+  </si>
+  <si>
+    <t>Hợp đồng thử việc KS-GROUP</t>
+  </si>
+  <si>
+    <t>Hợp đồng chuyên gia KS-GROUP</t>
+  </si>
+  <si>
+    <t>Hộp đồng cộng tác viên  KS-GROUP</t>
+  </si>
+  <si>
+    <t>Hợp đồng thử việc UNICLOUD</t>
+  </si>
+  <si>
+    <t>Hợp đồng chuyên gia UNICLOUD</t>
+  </si>
+  <si>
+    <t>Hộp đồng cộng tác viên  UNICLOUD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +287,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -174,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,11 +324,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -207,6 +364,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,20 +695,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" activeCellId="1" sqref="C7 E17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
@@ -624,19 +785,19 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -668,17 +829,274 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Thuế bậc thang,  Thuế 10% tổng thu nhập"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>" TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Một tháng, Hai tháng, Một năm, Hai năm, Dài hạn"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5BB27DEB-EA7A-431F-BC21-13B4488DE3C2}">
+          <x14:formula1>
+            <xm:f>danhmuc!$C$2:$C$35</xm:f>
+          </x14:formula1>
+          <xm:sqref>A5:A66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{840565B2-5292-43F8-9D0B-0506AAD1A4B0}">
+          <x14:formula1>
+            <xm:f>danhmuc!$H$2:$H$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5:D66</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEB2EB7-0DC1-41A3-AE14-DC95E8868DD3}">
+  <dimension ref="C1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="93.42578125" customWidth="1"/>
+    <col min="8" max="8" width="68.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/tpl-import-file/Import_HDLD.xlsx
+++ b/src/assets/tpl-import-file/Import_HDLD.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgdd1\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duongpx\Desktop\dev-info\imp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E9F47B-49E2-48E7-B455-0A2F3D2902C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={9F40013D-4E79-4363-A347-2C4E3FE6D7D3}</author>
   </authors>
   <commentList>
-    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>Import</t>
   </si>
@@ -259,12 +258,30 @@
   </si>
   <si>
     <t>Hộp đồng cộng tác viên  UNICLOUD</t>
+  </si>
+  <si>
+    <t>Bảng lương</t>
+  </si>
+  <si>
+    <t>Bậc lương</t>
+  </si>
+  <si>
+    <t>Người ký</t>
+  </si>
+  <si>
+    <t>Lương hiệu suất</t>
+  </si>
+  <si>
+    <t>Bậc 1</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Hiếu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
@@ -695,37 +712,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="59.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.5546875" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -739,7 +759,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -782,8 +802,17 @@
       <c r="N4" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -826,16 +855,25 @@
       <c r="N5" t="s">
         <v>17</v>
       </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5">
       <formula1>"Thuế bậc thang,  Thuế 10% tổng thu nhập"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5">
       <formula1>" TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
       <formula1>"Một tháng, Hai tháng, Một năm, Hai năm, Dài hạn"</formula1>
     </dataValidation>
   </dataValidations>
@@ -844,13 +882,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5BB27DEB-EA7A-431F-BC21-13B4488DE3C2}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>danhmuc!$C$2:$C$35</xm:f>
           </x14:formula1>
           <xm:sqref>A5:A66</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{840565B2-5292-43F8-9D0B-0506AAD1A4B0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>danhmuc!$H$2:$H$15</xm:f>
           </x14:formula1>
@@ -863,20 +901,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEB2EB7-0DC1-41A3-AE14-DC95E8868DD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="93.42578125" customWidth="1"/>
-    <col min="8" max="8" width="68.85546875" customWidth="1"/>
+    <col min="3" max="3" width="93.44140625" customWidth="1"/>
+    <col min="8" max="8" width="68.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C1" s="9" t="s">
         <v>55</v>
       </c>
